--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.407864500000001</v>
+        <v>7.409266</v>
       </c>
       <c r="H2">
-        <v>16.815729</v>
+        <v>14.818532</v>
       </c>
       <c r="I2">
-        <v>0.1746412504254716</v>
+        <v>0.1723967145981665</v>
       </c>
       <c r="J2">
-        <v>0.1287445241256281</v>
+        <v>0.1319190189807721</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>16.975865187267</v>
+        <v>80.28971821753801</v>
       </c>
       <c r="R2">
-        <v>67.903460749068</v>
+        <v>321.158872870152</v>
       </c>
       <c r="S2">
-        <v>0.0006942606760134495</v>
+        <v>0.003183929854836165</v>
       </c>
       <c r="T2">
-        <v>0.000348518834375885</v>
+        <v>0.001665209414547024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.407864500000001</v>
+        <v>7.409266</v>
       </c>
       <c r="H3">
-        <v>16.815729</v>
+        <v>14.818532</v>
       </c>
       <c r="I3">
-        <v>0.1746412504254716</v>
+        <v>0.1723967145981665</v>
       </c>
       <c r="J3">
-        <v>0.1287445241256281</v>
+        <v>0.1319190189807721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>1174.535089885675</v>
+        <v>1035.036055504566</v>
       </c>
       <c r="R3">
-        <v>7047.210539314049</v>
+        <v>6210.216333027399</v>
       </c>
       <c r="S3">
-        <v>0.04803487283329596</v>
+        <v>0.04104488434028412</v>
       </c>
       <c r="T3">
-        <v>0.03617025665068029</v>
+        <v>0.0321999844242573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.407864500000001</v>
+        <v>7.409266</v>
       </c>
       <c r="H4">
-        <v>16.815729</v>
+        <v>14.818532</v>
       </c>
       <c r="I4">
-        <v>0.1746412504254716</v>
+        <v>0.1723967145981665</v>
       </c>
       <c r="J4">
-        <v>0.1287445241256281</v>
+        <v>0.1319190189807721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>1566.846358546662</v>
+        <v>1112.28553207408</v>
       </c>
       <c r="R4">
-        <v>9401.078151279969</v>
+        <v>6673.713192444479</v>
       </c>
       <c r="S4">
-        <v>0.06407919714806273</v>
+        <v>0.04410825185707801</v>
       </c>
       <c r="T4">
-        <v>0.04825163199367075</v>
+        <v>0.03460321659099353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.407864500000001</v>
+        <v>7.409266</v>
       </c>
       <c r="H5">
-        <v>16.815729</v>
+        <v>14.818532</v>
       </c>
       <c r="I5">
-        <v>0.1746412504254716</v>
+        <v>0.1723967145981665</v>
       </c>
       <c r="J5">
-        <v>0.1287445241256281</v>
+        <v>0.1319190189807721</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>251.9275723655303</v>
+        <v>240.573110020318</v>
       </c>
       <c r="R5">
-        <v>1007.710289462121</v>
+        <v>962.2924400812719</v>
       </c>
       <c r="S5">
-        <v>0.01030306289355485</v>
+        <v>0.009540049763148406</v>
       </c>
       <c r="T5">
-        <v>0.005172137201810359</v>
+        <v>0.004989488275538435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.407864500000001</v>
+        <v>7.409266</v>
       </c>
       <c r="H6">
-        <v>16.815729</v>
+        <v>14.818532</v>
       </c>
       <c r="I6">
-        <v>0.1746412504254716</v>
+        <v>0.1723967145981665</v>
       </c>
       <c r="J6">
-        <v>0.1287445241256281</v>
+        <v>0.1319190189807721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>52.580391144239</v>
+        <v>385.9504466335953</v>
       </c>
       <c r="R6">
-        <v>315.482346865434</v>
+        <v>2315.702679801572</v>
       </c>
       <c r="S6">
-        <v>0.002150376284104312</v>
+        <v>0.01530506242648184</v>
       </c>
       <c r="T6">
-        <v>0.001619233225859093</v>
+        <v>0.01200692314441029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.407864500000001</v>
+        <v>7.409266</v>
       </c>
       <c r="H7">
-        <v>16.815729</v>
+        <v>14.818532</v>
       </c>
       <c r="I7">
-        <v>0.1746412504254716</v>
+        <v>0.1723967145981665</v>
       </c>
       <c r="J7">
-        <v>0.1287445241256281</v>
+        <v>0.1319190189807721</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>1207.413057490157</v>
+        <v>1493.223360813387</v>
       </c>
       <c r="R7">
-        <v>7244.478344940942</v>
+        <v>8959.340164880319</v>
       </c>
       <c r="S7">
-        <v>0.04937948059044031</v>
+        <v>0.05921453635633797</v>
       </c>
       <c r="T7">
-        <v>0.03718274621923173</v>
+        <v>0.04645419713102549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>58.273784</v>
       </c>
       <c r="I8">
-        <v>0.4034717140832388</v>
+        <v>0.451965998107559</v>
       </c>
       <c r="J8">
-        <v>0.4461555362886522</v>
+        <v>0.5187707134267695</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>39.21915016335467</v>
+        <v>210.492541673704</v>
       </c>
       <c r="R8">
-        <v>235.314900980128</v>
+        <v>1262.955250042224</v>
       </c>
       <c r="S8">
-        <v>0.001603942621169412</v>
+        <v>0.008347189435133162</v>
       </c>
       <c r="T8">
-        <v>0.001207768707164114</v>
+        <v>0.006548425561862658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>58.273784</v>
       </c>
       <c r="I9">
-        <v>0.4034717140832388</v>
+        <v>0.451965998107559</v>
       </c>
       <c r="J9">
-        <v>0.4461555362886522</v>
+        <v>0.5187707134267695</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>2713.515190784311</v>
@@ -1013,10 +1013,10 @@
         <v>24421.6367170588</v>
       </c>
       <c r="S9">
-        <v>0.1109744257476619</v>
+        <v>0.1076058332161692</v>
       </c>
       <c r="T9">
-        <v>0.1253456048968383</v>
+        <v>0.1266262364681288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>58.273784</v>
       </c>
       <c r="I10">
-        <v>0.4034717140832388</v>
+        <v>0.451965998107559</v>
       </c>
       <c r="J10">
-        <v>0.4461555362886522</v>
+        <v>0.5187707134267695</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>3619.867496640981</v>
+        <v>2916.037245003307</v>
       </c>
       <c r="R10">
-        <v>32578.80746976882</v>
+        <v>26244.33520502976</v>
       </c>
       <c r="S10">
-        <v>0.1480414475241057</v>
+        <v>0.1156369488933165</v>
       </c>
       <c r="T10">
-        <v>0.1672128029921664</v>
+        <v>0.1360769318667175</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>58.273784</v>
       </c>
       <c r="I11">
-        <v>0.4034717140832388</v>
+        <v>0.451965998107559</v>
       </c>
       <c r="J11">
-        <v>0.4461555362886522</v>
+        <v>0.5187707134267695</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>582.0254332783027</v>
+        <v>630.7014959166107</v>
       </c>
       <c r="R11">
-        <v>3492.152599669816</v>
+        <v>3784.208975499664</v>
       </c>
       <c r="S11">
-        <v>0.02380305017195232</v>
+        <v>0.02501079050866673</v>
       </c>
       <c r="T11">
-        <v>0.0179236954946563</v>
+        <v>0.01962113129959562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>58.273784</v>
       </c>
       <c r="I12">
-        <v>0.4034717140832388</v>
+        <v>0.451965998107559</v>
       </c>
       <c r="J12">
-        <v>0.4461555362886522</v>
+        <v>0.5187707134267695</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>121.4758855107182</v>
+        <v>1011.831804564251</v>
       </c>
       <c r="R12">
-        <v>1093.282969596464</v>
+        <v>9106.486241078263</v>
       </c>
       <c r="S12">
-        <v>0.004967990112059857</v>
+        <v>0.04012470789717087</v>
       </c>
       <c r="T12">
-        <v>0.005611344429333752</v>
+        <v>0.0472171498379169</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>58.273784</v>
       </c>
       <c r="I13">
-        <v>0.4034717140832388</v>
+        <v>0.451965998107559</v>
       </c>
       <c r="J13">
-        <v>0.4461555362886522</v>
+        <v>0.5187707134267695</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>2789.47278907587</v>
+        <v>3914.727657314204</v>
       </c>
       <c r="R13">
-        <v>25105.25510168283</v>
+        <v>35232.54891582784</v>
       </c>
       <c r="S13">
-        <v>0.1140808579062896</v>
+        <v>0.1552405281571025</v>
       </c>
       <c r="T13">
-        <v>0.1288543197684933</v>
+        <v>0.1826808383925479</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.779722333333333</v>
+        <v>1.784834666666667</v>
       </c>
       <c r="H14">
-        <v>14.339167</v>
+        <v>5.354503999999999</v>
       </c>
       <c r="I14">
-        <v>0.09928046354456428</v>
+        <v>0.04152903035661656</v>
       </c>
       <c r="J14">
-        <v>0.1097834790137799</v>
+        <v>0.047667401521866</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>9.650479258227332</v>
+        <v>19.341169888024</v>
       </c>
       <c r="R14">
-        <v>57.902875549364</v>
+        <v>116.047019328144</v>
       </c>
       <c r="S14">
-        <v>0.0003946749211166024</v>
+        <v>0.0007669839875024806</v>
       </c>
       <c r="T14">
-        <v>0.0002971901942973246</v>
+        <v>0.0006017040332355258</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.779722333333333</v>
+        <v>1.784834666666667</v>
       </c>
       <c r="H15">
-        <v>14.339167</v>
+        <v>5.354503999999999</v>
       </c>
       <c r="I15">
-        <v>0.09928046354456428</v>
+        <v>0.04152903035661656</v>
       </c>
       <c r="J15">
-        <v>0.1097834790137799</v>
+        <v>0.047667401521866</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>667.702435072572</v>
+        <v>249.3321515403111</v>
       </c>
       <c r="R15">
-        <v>6009.32191565315</v>
+        <v>2243.9893638628</v>
       </c>
       <c r="S15">
-        <v>0.027306976041316</v>
+        <v>0.009887394036043906</v>
       </c>
       <c r="T15">
-        <v>0.03084322722773216</v>
+        <v>0.01163508945417963</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.779722333333333</v>
+        <v>1.784834666666667</v>
       </c>
       <c r="H16">
-        <v>14.339167</v>
+        <v>5.354503999999999</v>
       </c>
       <c r="I16">
-        <v>0.09928046354456428</v>
+        <v>0.04152903035661656</v>
       </c>
       <c r="J16">
-        <v>0.1097834790137799</v>
+        <v>0.047667401521866</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>890.724455995632</v>
+        <v>267.9409508145067</v>
       </c>
       <c r="R16">
-        <v>8016.520103960687</v>
+        <v>2411.46855733056</v>
       </c>
       <c r="S16">
-        <v>0.03642789078138272</v>
+        <v>0.01062533549214959</v>
       </c>
       <c r="T16">
-        <v>0.04114529968815434</v>
+        <v>0.01250346941581941</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.779722333333333</v>
+        <v>1.784834666666667</v>
       </c>
       <c r="H17">
-        <v>14.339167</v>
+        <v>5.354503999999999</v>
       </c>
       <c r="I17">
-        <v>0.09928046354456428</v>
+        <v>0.04152903035661656</v>
       </c>
       <c r="J17">
-        <v>0.1097834790137799</v>
+        <v>0.047667401521866</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>143.2163712935638</v>
+        <v>57.95219481013066</v>
       </c>
       <c r="R17">
-        <v>859.2982277613829</v>
+        <v>347.713168860784</v>
       </c>
       <c r="S17">
-        <v>0.005857109116596977</v>
+        <v>0.00229812393548732</v>
       </c>
       <c r="T17">
-        <v>0.004410402848646731</v>
+        <v>0.001802893493722837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.779722333333333</v>
+        <v>1.784834666666667</v>
       </c>
       <c r="H18">
-        <v>14.339167</v>
+        <v>5.354503999999999</v>
       </c>
       <c r="I18">
-        <v>0.09928046354456428</v>
+        <v>0.04152903035661656</v>
       </c>
       <c r="J18">
-        <v>0.1097834790137799</v>
+        <v>0.047667401521866</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>29.89102284504244</v>
+        <v>92.97246674193154</v>
       </c>
       <c r="R18">
-        <v>269.019205605382</v>
+        <v>836.7522006773838</v>
       </c>
       <c r="S18">
-        <v>0.00122245090298538</v>
+        <v>0.00368687073649161</v>
       </c>
       <c r="T18">
-        <v>0.001380758195945133</v>
+        <v>0.004338561876739038</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.779722333333333</v>
+        <v>1.784834666666667</v>
       </c>
       <c r="H19">
-        <v>14.339167</v>
+        <v>5.354503999999999</v>
       </c>
       <c r="I19">
-        <v>0.09928046354456428</v>
+        <v>0.04152903035661656</v>
       </c>
       <c r="J19">
-        <v>0.1097834790137799</v>
+        <v>0.047667401521866</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>686.3929784363183</v>
+        <v>359.7059168150044</v>
       </c>
       <c r="R19">
-        <v>6177.536805926866</v>
+        <v>3237.35325133504</v>
       </c>
       <c r="S19">
-        <v>0.0280713617811666</v>
+        <v>0.01426432216894166</v>
       </c>
       <c r="T19">
-        <v>0.03170660085900423</v>
+        <v>0.01678568324816956</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.4098795</v>
+        <v>9.194213999999999</v>
       </c>
       <c r="H20">
-        <v>10.819759</v>
+        <v>18.388428</v>
       </c>
       <c r="I20">
-        <v>0.1123695702435648</v>
+        <v>0.2139283819628647</v>
       </c>
       <c r="J20">
-        <v>0.08283820009284057</v>
+        <v>0.1636993045167066</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>10.922795564957</v>
+        <v>99.632116230102</v>
       </c>
       <c r="R20">
-        <v>43.691182259828</v>
+        <v>398.528464920408</v>
       </c>
       <c r="S20">
-        <v>0.0004467087449876602</v>
+        <v>0.003950962544245628</v>
       </c>
       <c r="T20">
-        <v>0.0002242477739090581</v>
+        <v>0.002066370908017077</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.4098795</v>
+        <v>9.194213999999999</v>
       </c>
       <c r="H21">
-        <v>10.819759</v>
+        <v>18.388428</v>
       </c>
       <c r="I21">
-        <v>0.1123695702435648</v>
+        <v>0.2139283819628647</v>
       </c>
       <c r="J21">
-        <v>0.08283820009284057</v>
+        <v>0.1636993045167066</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>755.7321249412581</v>
+        <v>1284.3840391241</v>
       </c>
       <c r="R21">
-        <v>4534.392749647549</v>
+        <v>7706.304234744598</v>
       </c>
       <c r="S21">
-        <v>0.03090711961711023</v>
+        <v>0.0509329062055298</v>
       </c>
       <c r="T21">
-        <v>0.02327305940340189</v>
+        <v>0.03995720326322316</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.4098795</v>
+        <v>9.194213999999999</v>
       </c>
       <c r="H22">
-        <v>10.819759</v>
+        <v>18.388428</v>
       </c>
       <c r="I22">
-        <v>0.1123695702435648</v>
+        <v>0.2139283819628647</v>
       </c>
       <c r="J22">
-        <v>0.08283820009284057</v>
+        <v>0.1636993045167066</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>1008.1573025768</v>
+        <v>1380.24349658832</v>
       </c>
       <c r="R22">
-        <v>6048.943815460799</v>
+        <v>8281.460979529918</v>
       </c>
       <c r="S22">
-        <v>0.04123053303579797</v>
+        <v>0.05473426203619531</v>
       </c>
       <c r="T22">
-        <v>0.03104658915044403</v>
+        <v>0.04293939216461455</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.4098795</v>
+        <v>9.194213999999999</v>
       </c>
       <c r="H23">
-        <v>10.819759</v>
+        <v>18.388428</v>
       </c>
       <c r="I23">
-        <v>0.1123695702435648</v>
+        <v>0.2139283819628647</v>
       </c>
       <c r="J23">
-        <v>0.08283820009284057</v>
+        <v>0.1636993045167066</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>162.0979749643977</v>
+        <v>298.528984675722</v>
       </c>
       <c r="R23">
-        <v>648.3918998575909</v>
+        <v>1194.115938702888</v>
       </c>
       <c r="S23">
-        <v>0.006629308635391671</v>
+        <v>0.01183831962478277</v>
       </c>
       <c r="T23">
-        <v>0.00332791269641194</v>
+        <v>0.006191493591374819</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.4098795</v>
+        <v>9.194213999999999</v>
       </c>
       <c r="H24">
-        <v>10.819759</v>
+        <v>18.388428</v>
       </c>
       <c r="I24">
-        <v>0.1123695702435648</v>
+        <v>0.2139283819628647</v>
       </c>
       <c r="J24">
-        <v>0.08283820009284057</v>
+        <v>0.1636993045167066</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>33.83184638063566</v>
+        <v>478.9288169360979</v>
       </c>
       <c r="R24">
-        <v>202.991078283814</v>
+        <v>2873.572901616587</v>
       </c>
       <c r="S24">
-        <v>0.001383618465385841</v>
+        <v>0.01899216727168836</v>
       </c>
       <c r="T24">
-        <v>0.001041864629751583</v>
+        <v>0.014899481388745</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.4098795</v>
+        <v>9.194213999999999</v>
       </c>
       <c r="H25">
-        <v>10.819759</v>
+        <v>18.388428</v>
       </c>
       <c r="I25">
-        <v>0.1123695702435648</v>
+        <v>0.2139283819628647</v>
       </c>
       <c r="J25">
-        <v>0.08283820009284057</v>
+        <v>0.1636993045167066</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>776.8868239668136</v>
+        <v>1852.95211821488</v>
       </c>
       <c r="R25">
-        <v>4661.320943800882</v>
+        <v>11117.71270928928</v>
       </c>
       <c r="S25">
-        <v>0.03177228174489145</v>
+        <v>0.07347976428042285</v>
       </c>
       <c r="T25">
-        <v>0.02392452643892206</v>
+        <v>0.05764536320073195</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.851227666666666</v>
+        <v>1.411100333333333</v>
       </c>
       <c r="H26">
-        <v>17.553683</v>
+        <v>4.233301</v>
       </c>
       <c r="I26">
-        <v>0.1215368915889143</v>
+        <v>0.03283308514433742</v>
       </c>
       <c r="J26">
-        <v>0.1343944448966279</v>
+        <v>0.03768611593714691</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>11.81389781547267</v>
+        <v>15.291237774431</v>
       </c>
       <c r="R26">
-        <v>70.883386892836</v>
+        <v>91.74742664658601</v>
       </c>
       <c r="S26">
-        <v>0.000483152086402986</v>
+        <v>0.0006063818574564962</v>
       </c>
       <c r="T26">
-        <v>0.000363813494982215</v>
+        <v>0.0004757105953417878</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.851227666666666</v>
+        <v>1.411100333333333</v>
       </c>
       <c r="H27">
-        <v>17.553683</v>
+        <v>4.233301</v>
       </c>
       <c r="I27">
-        <v>0.1215368915889143</v>
+        <v>0.03283308514433742</v>
       </c>
       <c r="J27">
-        <v>0.1343944448966279</v>
+        <v>0.03768611593714691</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>817.3861761699276</v>
+        <v>197.1234023632722</v>
       </c>
       <c r="R27">
-        <v>7356.475585529349</v>
+        <v>1774.11062126945</v>
       </c>
       <c r="S27">
-        <v>0.03342858069215987</v>
+        <v>0.00781702937567676</v>
       </c>
       <c r="T27">
-        <v>0.03775757918521899</v>
+        <v>0.009198767210084835</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.851227666666666</v>
+        <v>1.411100333333333</v>
       </c>
       <c r="H28">
-        <v>17.553683</v>
+        <v>4.233301</v>
       </c>
       <c r="I28">
-        <v>0.1215368915889143</v>
+        <v>0.03283308514433742</v>
       </c>
       <c r="J28">
-        <v>0.1343944448966279</v>
+        <v>0.03768611593714691</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>1090.404675592018</v>
+        <v>211.8356238082933</v>
       </c>
       <c r="R28">
-        <v>9813.642080328164</v>
+        <v>1906.52061427464</v>
       </c>
       <c r="S28">
-        <v>0.04459419763609801</v>
+        <v>0.008400450044346284</v>
       </c>
       <c r="T28">
-        <v>0.05036914261936276</v>
+        <v>0.009885313295397245</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.851227666666666</v>
+        <v>1.411100333333333</v>
       </c>
       <c r="H29">
-        <v>17.553683</v>
+        <v>4.233301</v>
       </c>
       <c r="I29">
-        <v>0.1215368915889143</v>
+        <v>0.03283308514433742</v>
       </c>
       <c r="J29">
-        <v>0.1343944448966279</v>
+        <v>0.03768611593714691</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>175.3222332997111</v>
+        <v>45.81733139837434</v>
       </c>
       <c r="R29">
-        <v>1051.933399798267</v>
+        <v>274.903988390246</v>
       </c>
       <c r="S29">
-        <v>0.007170140129419887</v>
+        <v>0.00181690971828995</v>
       </c>
       <c r="T29">
-        <v>0.005399115130428545</v>
+        <v>0.001425377743647288</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.851227666666666</v>
+        <v>1.411100333333333</v>
       </c>
       <c r="H30">
-        <v>17.553683</v>
+        <v>4.233301</v>
       </c>
       <c r="I30">
-        <v>0.1215368915889143</v>
+        <v>0.03283308514433742</v>
       </c>
       <c r="J30">
-        <v>0.1343944448966279</v>
+        <v>0.03768611593714691</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>36.59191217785755</v>
+        <v>73.5045554977801</v>
       </c>
       <c r="R30">
-        <v>329.327209600718</v>
+        <v>661.5409994800209</v>
       </c>
       <c r="S30">
-        <v>0.001496496667768017</v>
+        <v>0.002914860755666757</v>
       </c>
       <c r="T30">
-        <v>0.001690292865078756</v>
+        <v>0.003430091439162478</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.851227666666666</v>
+        <v>1.411100333333333</v>
       </c>
       <c r="H31">
-        <v>17.553683</v>
+        <v>4.233301</v>
       </c>
       <c r="I31">
-        <v>0.1215368915889143</v>
+        <v>0.03283308514433742</v>
       </c>
       <c r="J31">
-        <v>0.1343944448966279</v>
+        <v>0.03768611593714691</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>840.2667154163815</v>
+        <v>284.3855224235289</v>
       </c>
       <c r="R31">
-        <v>7562.400438747434</v>
+        <v>2559.46970181176</v>
       </c>
       <c r="S31">
-        <v>0.03436432437706555</v>
+        <v>0.01127745339290117</v>
       </c>
       <c r="T31">
-        <v>0.03881450160155663</v>
+        <v>0.01327085565351327</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.270345666666667</v>
+        <v>3.753990333333333</v>
       </c>
       <c r="H32">
-        <v>12.811037</v>
+        <v>11.261971</v>
       </c>
       <c r="I32">
-        <v>0.08870011011424613</v>
+        <v>0.08734678983045589</v>
       </c>
       <c r="J32">
-        <v>0.09808381558247128</v>
+        <v>0.1002574456167389</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>8.622024336900665</v>
+        <v>40.679714570201</v>
       </c>
       <c r="R32">
-        <v>51.73214602140399</v>
+        <v>244.078287421206</v>
       </c>
       <c r="S32">
-        <v>0.0003526142779003044</v>
+        <v>0.001613174894391207</v>
       </c>
       <c r="T32">
-        <v>0.0002655185322257712</v>
+        <v>0.001265546420897533</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.270345666666667</v>
+        <v>3.753990333333333</v>
       </c>
       <c r="H33">
-        <v>12.811037</v>
+        <v>11.261971</v>
       </c>
       <c r="I33">
-        <v>0.08870011011424613</v>
+        <v>0.08734678983045589</v>
       </c>
       <c r="J33">
-        <v>0.09808381558247128</v>
+        <v>0.1002574456167389</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>596.5451550082943</v>
+        <v>524.4129913834387</v>
       </c>
       <c r="R33">
-        <v>5368.906395074649</v>
+        <v>4719.716922450949</v>
       </c>
       <c r="S33">
-        <v>0.02439686213455864</v>
+        <v>0.02079586548063078</v>
       </c>
       <c r="T33">
-        <v>0.02755625380566975</v>
+        <v>0.02447174192331854</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.270345666666667</v>
+        <v>3.753990333333333</v>
       </c>
       <c r="H34">
-        <v>12.811037</v>
+        <v>11.261971</v>
       </c>
       <c r="I34">
-        <v>0.08870011011424613</v>
+        <v>0.08734678983045589</v>
       </c>
       <c r="J34">
-        <v>0.09808381558247128</v>
+        <v>0.1002574456167389</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>795.7996418177509</v>
+        <v>563.5523323514933</v>
       </c>
       <c r="R34">
-        <v>7162.196776359757</v>
+        <v>5071.97099116344</v>
       </c>
       <c r="S34">
-        <v>0.03254575782765156</v>
+        <v>0.02234795607172194</v>
       </c>
       <c r="T34">
-        <v>0.03676043083123542</v>
+        <v>0.02629817999208613</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.270345666666667</v>
+        <v>3.753990333333333</v>
       </c>
       <c r="H35">
-        <v>12.811037</v>
+        <v>11.261971</v>
       </c>
       <c r="I35">
-        <v>0.08870011011424613</v>
+        <v>0.08734678983045589</v>
       </c>
       <c r="J35">
-        <v>0.09808381558247128</v>
+        <v>0.1002574456167389</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>127.9537529375022</v>
+        <v>121.8891492728443</v>
       </c>
       <c r="R35">
-        <v>767.7225176250129</v>
+        <v>731.334895637066</v>
       </c>
       <c r="S35">
-        <v>0.005232914966801153</v>
+        <v>0.004833576577002103</v>
       </c>
       <c r="T35">
-        <v>0.003940384687542775</v>
+        <v>0.003791972933888044</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.270345666666667</v>
+        <v>3.753990333333333</v>
       </c>
       <c r="H36">
-        <v>12.811037</v>
+        <v>11.261971</v>
       </c>
       <c r="I36">
-        <v>0.08870011011424613</v>
+        <v>0.08734678983045589</v>
       </c>
       <c r="J36">
-        <v>0.09808381558247128</v>
+        <v>0.1002574456167389</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>26.70552617426689</v>
+        <v>195.5462586723434</v>
       </c>
       <c r="R36">
-        <v>240.349735568402</v>
+        <v>1759.916328051091</v>
       </c>
       <c r="S36">
-        <v>0.001092173886309373</v>
+        <v>0.007754486935693232</v>
       </c>
       <c r="T36">
-        <v>0.001233610316157581</v>
+        <v>0.009125169770634333</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.270345666666667</v>
+        <v>3.753990333333333</v>
       </c>
       <c r="H37">
-        <v>12.811037</v>
+        <v>11.261971</v>
       </c>
       <c r="I37">
-        <v>0.08870011011424613</v>
+        <v>0.08734678983045589</v>
       </c>
       <c r="J37">
-        <v>0.09808381558247128</v>
+        <v>0.1002574456167389</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>613.2438406839028</v>
+        <v>756.5588901789954</v>
       </c>
       <c r="R37">
-        <v>5519.194566155126</v>
+        <v>6809.030011610959</v>
       </c>
       <c r="S37">
-        <v>0.02507978702102509</v>
+        <v>0.03000172987101664</v>
       </c>
       <c r="T37">
-        <v>0.02832761740963997</v>
+        <v>0.03530483457591429</v>
       </c>
     </row>
   </sheetData>
